--- a/game-manage/src/main/resources/biz_config/question_01.xlsx
+++ b/game-manage/src/main/resources/biz_config/question_01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{853D8262-C24B-FE45-A38D-AC5BA28B1F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE5B25-866F-4A45-8B0A-5E158488819C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="313">
   <si>
     <t>志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>荫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -784,10 +776,6 @@
   </si>
   <si>
     <t>风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1743,7 +1731,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="228">
+  <dxfs count="229">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4302,9 +4300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24:DR47"/>
+      <selection pane="bottomLeft" activeCell="AM2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="13"/>
@@ -4317,8 +4315,9 @@
     <col min="22" max="22" width="3" style="35" bestFit="1" customWidth="1"/>
     <col min="23" max="42" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="43" max="52" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="82" width="3" style="5" bestFit="1" customWidth="1"/>
-    <col min="83" max="92" width="1.1640625" style="5" customWidth="1"/>
+    <col min="53" max="81" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="82" max="89" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="90" max="92" width="1.1640625" style="5" customWidth="1"/>
     <col min="93" max="102" width="1.33203125" style="5" customWidth="1"/>
     <col min="103" max="110" width="2.83203125" style="5"/>
     <col min="111" max="112" width="2.33203125" style="5" customWidth="1"/>
@@ -4327,10 +4326,10 @@
   <sheetData>
     <row r="1" spans="1:122" ht="14" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -4633,69 +4632,69 @@
         <v>100</v>
       </c>
       <c r="CY1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="CZ1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="DA1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="CZ1" s="32" t="s">
+      <c r="DB1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="DA1" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="DB1" s="32" t="s">
-        <v>28</v>
-      </c>
       <c r="DC1" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="DD1" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="DE1" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="DD1" s="32" t="s">
+      <c r="DF1" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="DE1" s="32" t="s">
+      <c r="DG1" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="DF1" s="32" t="s">
+      <c r="DH1" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="DG1" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="DH1" s="33" t="s">
-        <v>215</v>
-      </c>
       <c r="DI1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="DQ1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="DR1" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:122" ht="14" thickBot="1">
       <c r="A2" s="50" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B2" s="50">
         <v>1</v>
@@ -4720,7 +4719,7 @@
         <v>7</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U2" s="7" t="s">
         <v>9</v>
@@ -4735,7 +4734,7 @@
         <v>12</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>13</v>
@@ -4755,48 +4754,48 @@
       </c>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO2" s="7"/>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="6"/>
       <c r="AR2" s="7"/>
       <c r="AS2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" s="7"/>
       <c r="AU2" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AV2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW2" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AY2" s="7"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="6"/>
       <c r="BB2" s="7"/>
       <c r="BC2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BD2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="BE2" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BG2" s="7"/>
       <c r="BH2" s="7"/>
@@ -4806,10 +4805,10 @@
       <c r="BL2" s="7"/>
       <c r="BM2" s="7"/>
       <c r="BN2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BO2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BP2" s="7"/>
       <c r="BQ2" s="7"/>
@@ -4820,7 +4819,7 @@
       <c r="BV2" s="7"/>
       <c r="BW2" s="7"/>
       <c r="BX2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BY2" s="7"/>
       <c r="BZ2" s="7"/>
@@ -4832,13 +4831,13 @@
       <c r="CF2" s="7"/>
       <c r="CG2" s="7"/>
       <c r="CH2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="CI2" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="CJ2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CK2" s="7" t="s">
         <v>1</v>
@@ -4857,34 +4856,34 @@
       <c r="CW2" s="7"/>
       <c r="CX2" s="8"/>
       <c r="CY2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="CZ2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="CZ2" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="DA2" s="10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="DB2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="DC2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD2" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="DE2" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="DD2" s="10" t="s">
+      <c r="DF2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG2" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="DE2" s="10" t="s">
+      <c r="DH2" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="DF2" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="DG2" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="DH2" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="DI2" s="10" t="s">
         <v>2</v>
@@ -4902,24 +4901,24 @@
         <v>6</v>
       </c>
       <c r="DN2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DO2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DP2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DQ2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DR2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:122" ht="14" thickBot="1">
       <c r="A3" s="50" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B3" s="50">
         <v>1</v>
@@ -4937,16 +4936,16 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
@@ -4956,7 +4955,7 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
@@ -4966,16 +4965,16 @@
       <c r="AF3" s="11"/>
       <c r="AG3" s="11"/>
       <c r="AH3" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL3" s="11"/>
       <c r="AM3" s="11"/>
@@ -4984,33 +4983,33 @@
       <c r="AP3" s="11"/>
       <c r="AQ3" s="11"/>
       <c r="AR3" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS3" s="11"/>
       <c r="AT3" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AU3" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AV3" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AW3" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AX3" s="11"/>
       <c r="AY3" s="11"/>
       <c r="AZ3" s="11"/>
       <c r="BA3" s="11"/>
       <c r="BB3" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BC3" s="11"/>
       <c r="BD3" s="11"/>
       <c r="BE3" s="11"/>
       <c r="BF3" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BG3" s="11"/>
       <c r="BH3" s="11"/>
@@ -5018,13 +5017,13 @@
       <c r="BJ3" s="11"/>
       <c r="BK3" s="11"/>
       <c r="BL3" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BM3" s="11"/>
       <c r="BN3" s="11"/>
       <c r="BO3" s="11"/>
       <c r="BP3" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BQ3" s="11"/>
       <c r="BR3" s="11"/>
@@ -5035,16 +5034,16 @@
       <c r="BW3" s="11"/>
       <c r="BX3" s="11"/>
       <c r="BY3" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BZ3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="CB3" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="CA3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="CB3" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="CC3" s="11"/>
       <c r="CD3" s="11"/>
@@ -5069,34 +5068,34 @@
       <c r="CW3" s="2"/>
       <c r="CX3" s="3"/>
       <c r="CY3" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="CZ3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="DA3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="DA3" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="DB3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="DC3" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="DD3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="DE3" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="DF3" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="DD3" s="10" t="s">
+      <c r="DG3" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="DE3" s="10" t="s">
+      <c r="DH3" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="DF3" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="DG3" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="DH3" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="DI3" s="10"/>
       <c r="DJ3" s="10"/>
@@ -5111,7 +5110,7 @@
     </row>
     <row r="4" spans="1:122" ht="14" thickBot="1">
       <c r="A4" s="50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B4" s="50">
         <v>1</v>
@@ -5131,7 +5130,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -5141,16 +5140,16 @@
       <c r="W4" s="41"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB4" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB4" s="28" t="s">
-        <v>85</v>
       </c>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
@@ -5161,7 +5160,7 @@
       <c r="AI4" s="11"/>
       <c r="AJ4" s="11"/>
       <c r="AK4" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AL4" s="11"/>
       <c r="AM4" s="11"/>
@@ -5173,16 +5172,16 @@
       <c r="AS4" s="11"/>
       <c r="AT4" s="11"/>
       <c r="AU4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AV4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX4" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="AW4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX4" s="28" t="s">
-        <v>91</v>
       </c>
       <c r="AY4" s="11"/>
       <c r="AZ4" s="11"/>
@@ -5193,7 +5192,7 @@
       <c r="BE4" s="11"/>
       <c r="BF4" s="11"/>
       <c r="BG4" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BH4" s="11"/>
       <c r="BI4" s="11"/>
@@ -5205,7 +5204,7 @@
       <c r="BO4" s="11"/>
       <c r="BP4" s="11"/>
       <c r="BQ4" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BR4" s="11"/>
       <c r="BS4" s="11"/>
@@ -5214,16 +5213,16 @@
       <c r="BV4" s="11"/>
       <c r="BW4" s="11"/>
       <c r="BX4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ4" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="BY4" s="28" t="s">
+      <c r="CA4" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="BZ4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA4" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="CB4" s="11"/>
       <c r="CC4" s="11"/>
@@ -5249,34 +5248,34 @@
       <c r="CW4" s="2"/>
       <c r="CX4" s="3"/>
       <c r="CY4" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="CZ4" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="DA4" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="DB4" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="DC4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DD4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DE4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DF4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DG4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DH4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DI4" s="10"/>
       <c r="DJ4" s="10"/>
@@ -5291,7 +5290,7 @@
     </row>
     <row r="5" spans="1:122" ht="14" thickBot="1">
       <c r="A5" s="50" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B5" s="50">
         <v>1</v>
@@ -5319,11 +5318,11 @@
       <c r="W5" s="41"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Z5" s="11"/>
       <c r="AA5" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
@@ -5333,11 +5332,11 @@
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
       <c r="AI5" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
@@ -5346,20 +5345,20 @@
       <c r="AP5" s="11"/>
       <c r="AQ5" s="11"/>
       <c r="AR5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT5" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="AS5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT5" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="AU5" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AV5" s="11"/>
       <c r="AW5" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AX5" s="11"/>
       <c r="AY5" s="11"/>
@@ -5367,20 +5366,20 @@
       <c r="BA5" s="11"/>
       <c r="BB5" s="11"/>
       <c r="BC5" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BD5" s="11"/>
       <c r="BE5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BF5" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH5" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="BG5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH5" s="28" t="s">
-        <v>109</v>
       </c>
       <c r="BI5" s="11"/>
       <c r="BJ5" s="11"/>
@@ -5391,7 +5390,7 @@
       <c r="BO5" s="11"/>
       <c r="BP5" s="11"/>
       <c r="BQ5" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BR5" s="11"/>
       <c r="BS5" s="11"/>
@@ -5403,7 +5402,7 @@
       <c r="BY5" s="11"/>
       <c r="BZ5" s="11"/>
       <c r="CA5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CB5" s="11"/>
       <c r="CC5" s="11"/>
@@ -5429,34 +5428,34 @@
       <c r="CW5" s="2"/>
       <c r="CX5" s="3"/>
       <c r="CY5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="CZ5" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="CZ5" s="10" t="s">
+      <c r="DA5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="DA5" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="DB5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC5" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="DC5" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="DD5" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="DE5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DF5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DG5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DH5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DI5" s="10"/>
       <c r="DJ5" s="10"/>
@@ -5471,7 +5470,7 @@
     </row>
     <row r="6" spans="1:122" ht="14" thickBot="1">
       <c r="A6" s="50" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B6" s="50">
         <v>1</v>
@@ -5498,16 +5497,16 @@
       <c r="V6" s="3"/>
       <c r="W6" s="41"/>
       <c r="X6" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y6" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z6" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="Y6" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z6" s="28" t="s">
-        <v>118</v>
-      </c>
       <c r="AA6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
@@ -5519,7 +5518,7 @@
       <c r="AI6" s="11"/>
       <c r="AJ6" s="11"/>
       <c r="AK6" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
@@ -5530,16 +5529,16 @@
       <c r="AR6" s="11"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV6" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW6" s="28" t="s">
         <v>125</v>
-      </c>
-      <c r="AU6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV6" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="AW6" s="28" t="s">
-        <v>127</v>
       </c>
       <c r="AX6" s="11"/>
       <c r="AY6" s="11"/>
@@ -5549,7 +5548,7 @@
       <c r="BC6" s="11"/>
       <c r="BD6" s="11"/>
       <c r="BE6" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BF6" s="11"/>
       <c r="BG6" s="11"/>
@@ -5561,16 +5560,16 @@
       <c r="BM6" s="11"/>
       <c r="BN6" s="11"/>
       <c r="BO6" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="BP6" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BR6" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BS6" s="11"/>
       <c r="BT6" s="11"/>
@@ -5579,7 +5578,7 @@
       <c r="BW6" s="11"/>
       <c r="BX6" s="11"/>
       <c r="BY6" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BZ6" s="11"/>
       <c r="CA6" s="11"/>
@@ -5607,34 +5606,34 @@
       <c r="CW6" s="2"/>
       <c r="CX6" s="3"/>
       <c r="CY6" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="CZ6" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="DA6" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="DB6" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DC6" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="DD6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DE6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DF6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DG6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DH6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DI6" s="10"/>
       <c r="DJ6" s="10"/>
@@ -5649,7 +5648,7 @@
     </row>
     <row r="7" spans="1:122" ht="14" thickBot="1">
       <c r="A7" s="50" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B7" s="50">
         <v>1</v>
@@ -5680,7 +5679,7 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
@@ -5692,7 +5691,7 @@
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
@@ -5702,16 +5701,16 @@
       <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AU7" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AV7" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AW7" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AX7" s="11"/>
       <c r="AY7" s="11"/>
@@ -5722,10 +5721,10 @@
       <c r="BD7" s="11"/>
       <c r="BE7" s="11"/>
       <c r="BF7" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BG7" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BH7" s="11"/>
       <c r="BI7" s="11"/>
@@ -5737,7 +5736,7 @@
       <c r="BO7" s="11"/>
       <c r="BP7" s="11"/>
       <c r="BQ7" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BR7" s="11"/>
       <c r="BS7" s="11"/>
@@ -5746,16 +5745,16 @@
       <c r="BV7" s="11"/>
       <c r="BW7" s="11"/>
       <c r="BX7" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BY7" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BZ7" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CA7" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB7" s="11"/>
       <c r="CC7" s="11"/>
@@ -5781,34 +5780,34 @@
       <c r="CW7" s="2"/>
       <c r="CX7" s="3"/>
       <c r="CY7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CZ7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="DA7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="CZ7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="DA7" s="10" t="s">
+      <c r="DB7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="DD7" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="DB7" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="DC7" s="10" t="s">
+      <c r="DE7" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="DD7" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="DE7" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="DF7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DG7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DH7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DI7" s="10"/>
       <c r="DJ7" s="10"/>
@@ -5823,7 +5822,7 @@
     </row>
     <row r="8" spans="1:122" ht="14" thickBot="1">
       <c r="A8" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B8" s="50">
         <v>1</v>
@@ -5853,7 +5852,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
       <c r="AA8" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
@@ -5864,16 +5863,16 @@
       <c r="AH8" s="11"/>
       <c r="AI8" s="11"/>
       <c r="AJ8" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AL8" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AN8" s="11"/>
       <c r="AO8" s="11"/>
@@ -5883,7 +5882,7 @@
       <c r="AS8" s="11"/>
       <c r="AT8" s="11"/>
       <c r="AU8" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AV8" s="11"/>
       <c r="AW8" s="11"/>
@@ -5893,16 +5892,16 @@
       <c r="BA8" s="11"/>
       <c r="BB8" s="11"/>
       <c r="BC8" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BG8" s="11"/>
       <c r="BH8" s="11"/>
@@ -5912,7 +5911,7 @@
       <c r="BL8" s="11"/>
       <c r="BM8" s="11"/>
       <c r="BN8" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BO8" s="11"/>
       <c r="BP8" s="11"/>
@@ -5924,16 +5923,16 @@
       <c r="BV8" s="11"/>
       <c r="BW8" s="11"/>
       <c r="BX8" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BY8" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BZ8" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="CA8" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CB8" s="11"/>
       <c r="CC8" s="11"/>
@@ -5942,7 +5941,7 @@
       <c r="CF8" s="11"/>
       <c r="CG8" s="11"/>
       <c r="CH8" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CI8" s="11"/>
       <c r="CJ8" s="11"/>
@@ -5961,34 +5960,34 @@
       <c r="CW8" s="2"/>
       <c r="CX8" s="3"/>
       <c r="CY8" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="CZ8" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="DA8" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="DB8" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="DC8" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="DD8" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="DE8" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DF8" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DG8" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DH8" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DI8" s="30"/>
       <c r="DJ8" s="10"/>
@@ -6003,7 +6002,7 @@
     </row>
     <row r="9" spans="1:122" ht="14" thickBot="1">
       <c r="A9" s="50" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B9" s="50">
         <v>1</v>
@@ -6024,7 +6023,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
@@ -6033,16 +6032,16 @@
       <c r="W9" s="41"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z9" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
@@ -6051,12 +6050,12 @@
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
       <c r="AI9" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AJ9" s="11"/>
       <c r="AK9" s="11"/>
       <c r="AL9" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
@@ -6065,14 +6064,14 @@
       <c r="AQ9" s="11"/>
       <c r="AR9" s="11"/>
       <c r="AS9" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AT9" s="11"/>
       <c r="AU9" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AV9" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AW9" s="11"/>
       <c r="AX9" s="11"/>
@@ -6080,21 +6079,21 @@
       <c r="AZ9" s="11"/>
       <c r="BA9" s="11"/>
       <c r="BB9" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BC9" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BD9" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BE9" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BF9" s="11"/>
       <c r="BG9" s="11"/>
       <c r="BH9" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="BI9" s="11"/>
       <c r="BJ9" s="11"/>
@@ -6103,12 +6102,12 @@
       <c r="BM9" s="11"/>
       <c r="BN9" s="11"/>
       <c r="BO9" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BP9" s="11"/>
       <c r="BQ9" s="11"/>
       <c r="BR9" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BS9" s="11"/>
       <c r="BT9" s="11"/>
@@ -6117,16 +6116,16 @@
       <c r="BW9" s="11"/>
       <c r="BX9" s="11"/>
       <c r="BY9" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BZ9" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="CA9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB9" s="28" t="s">
         <v>180</v>
-      </c>
-      <c r="CA9" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="CB9" s="28" t="s">
-        <v>182</v>
       </c>
       <c r="CC9" s="11"/>
       <c r="CD9" s="11"/>
@@ -6138,7 +6137,7 @@
       <c r="CJ9" s="11"/>
       <c r="CK9" s="11"/>
       <c r="CL9" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="CM9" s="11"/>
       <c r="CN9" s="11"/>
@@ -6153,34 +6152,34 @@
       <c r="CW9" s="2"/>
       <c r="CX9" s="3"/>
       <c r="CY9" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="CZ9" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="DA9" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="CZ9" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="DA9" s="28" t="s">
+      <c r="DB9" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="DC9" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="DB9" s="28" t="s">
+      <c r="DD9" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="DC9" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="DD9" s="28" t="s">
-        <v>173</v>
-      </c>
       <c r="DE9" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="DF9" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="DF9" s="28" t="s">
+      <c r="DG9" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="DG9" s="28" t="s">
-        <v>185</v>
-      </c>
       <c r="DH9" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DI9" s="30"/>
       <c r="DJ9" s="10"/>
@@ -6195,7 +6194,7 @@
     </row>
     <row r="10" spans="1:122" ht="14" thickBot="1">
       <c r="A10" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B10" s="50">
         <v>1</v>
@@ -6223,12 +6222,12 @@
       <c r="W10" s="41"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
@@ -6237,32 +6236,32 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
       <c r="AL10" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM10" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AN10" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
       <c r="AS10" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AT10" s="11"/>
       <c r="AU10" s="11"/>
       <c r="AV10" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AW10" s="11"/>
       <c r="AX10" s="11"/>
@@ -6271,16 +6270,16 @@
       <c r="BA10" s="11"/>
       <c r="BB10" s="11"/>
       <c r="BC10" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BD10" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BE10" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="BF10" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BG10" s="11"/>
       <c r="BH10" s="11"/>
@@ -6290,7 +6289,7 @@
       <c r="BL10" s="11"/>
       <c r="BM10" s="11"/>
       <c r="BN10" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BO10" s="11"/>
       <c r="BP10" s="11"/>
@@ -6302,16 +6301,16 @@
       <c r="BV10" s="11"/>
       <c r="BW10" s="11"/>
       <c r="BX10" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BY10" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BZ10" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="CA10" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="CB10" s="11"/>
       <c r="CC10" s="11"/>
@@ -6319,16 +6318,16 @@
       <c r="CE10" s="11"/>
       <c r="CF10" s="11"/>
       <c r="CG10" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="CH10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="CI10" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CJ10" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="CK10" s="11"/>
       <c r="CL10" s="11"/>
@@ -6345,34 +6344,34 @@
       <c r="CW10" s="2"/>
       <c r="CX10" s="3"/>
       <c r="CY10" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="CZ10" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="CZ10" s="28" t="s">
-        <v>194</v>
-      </c>
       <c r="DA10" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="DB10" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="DC10" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="DD10" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="DE10" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="DF10" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="DG10" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="DH10" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DI10" s="30"/>
       <c r="DJ10" s="10"/>
@@ -6387,7 +6386,7 @@
     </row>
     <row r="11" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A11" s="50" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B11" s="50">
         <v>1</v>
@@ -6405,7 +6404,7 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -6417,35 +6416,35 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Z11" s="11"/>
       <c r="AA11" s="28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AB11" s="11"/>
       <c r="AC11" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="11"/>
       <c r="AH11" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AI11" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ11" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AK11" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AL11" s="11"/>
       <c r="AM11" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
@@ -6453,15 +6452,15 @@
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
       <c r="AS11" s="28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AT11" s="11"/>
       <c r="AU11" s="28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AV11" s="11"/>
       <c r="AW11" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AX11" s="11"/>
       <c r="AY11" s="11"/>
@@ -6471,16 +6470,16 @@
       <c r="BC11" s="11"/>
       <c r="BD11" s="11"/>
       <c r="BE11" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BF11" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="BG11" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BH11" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="BH11" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="BI11" s="11"/>
       <c r="BJ11" s="11"/>
@@ -6492,7 +6491,7 @@
       <c r="BP11" s="11"/>
       <c r="BQ11" s="11"/>
       <c r="BR11" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="BS11" s="11"/>
       <c r="BT11" s="11"/>
@@ -6501,16 +6500,16 @@
       <c r="BW11" s="11"/>
       <c r="BX11" s="11"/>
       <c r="BY11" s="28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BZ11" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="CA11" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="CB11" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CC11" s="11"/>
       <c r="CD11" s="11"/>
@@ -6522,7 +6521,7 @@
       <c r="CJ11" s="11"/>
       <c r="CK11" s="11"/>
       <c r="CL11" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="CM11" s="11"/>
       <c r="CN11" s="11"/>
@@ -6537,69 +6536,69 @@
       <c r="CW11" s="36"/>
       <c r="CX11" s="36"/>
       <c r="CY11" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="CZ11" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="DA11" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="DB11" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="DB11" s="28" t="s">
+      <c r="DC11" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="DD11" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="DE11" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="DF11" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="DC11" s="28" t="s">
+      <c r="DG11" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="DD11" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="DE11" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="DF11" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="DG11" s="28" t="s">
-        <v>246</v>
-      </c>
       <c r="DH11" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="DI11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DJ11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DL11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DN11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DO11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DP11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DQ11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="50" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B12" s="50">
         <v>1</v>
@@ -6608,7 +6607,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -6620,7 +6619,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -6630,31 +6629,31 @@
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Y12" s="11"/>
       <c r="Z12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB12" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC12" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="AA12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB12" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC12" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="11"/>
       <c r="AH12" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
@@ -6664,16 +6663,16 @@
       <c r="AP12" s="11"/>
       <c r="AQ12" s="11"/>
       <c r="AR12" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AS12" s="28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AT12" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU12" s="28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
@@ -6682,40 +6681,40 @@
       <c r="AZ12" s="11"/>
       <c r="BA12" s="11"/>
       <c r="BB12" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="BC12" s="11"/>
       <c r="BD12" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE12" s="11"/>
       <c r="BF12" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BG12" s="11"/>
       <c r="BH12" s="11"/>
       <c r="BI12" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BJ12" s="11"/>
       <c r="BK12" s="11"/>
       <c r="BL12" s="11"/>
       <c r="BM12" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BN12" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BO12" s="28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="BP12" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BQ12" s="11"/>
       <c r="BR12" s="11"/>
       <c r="BS12" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="BT12" s="11"/>
       <c r="BU12" s="11"/>
@@ -6724,16 +6723,16 @@
       <c r="BX12" s="11"/>
       <c r="BY12" s="11"/>
       <c r="BZ12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="CA12" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="CB12" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="CC12" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="CD12" s="11"/>
       <c r="CE12" s="11"/>
@@ -6742,12 +6741,12 @@
       <c r="CH12" s="11"/>
       <c r="CI12" s="11"/>
       <c r="CJ12" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="CK12" s="11"/>
       <c r="CL12" s="11"/>
       <c r="CM12" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="CN12" s="11"/>
       <c r="CO12" s="11"/>
@@ -6761,69 +6760,69 @@
       <c r="CW12" s="11"/>
       <c r="CX12" s="43"/>
       <c r="CY12" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="CZ12" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="CZ12" s="28" t="s">
+      <c r="DA12" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="DB12" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="DC12" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="DD12" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="DE12" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="DA12" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="DB12" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC12" s="28" t="s">
+      <c r="DF12" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="DG12" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="DH12" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="DD12" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="DE12" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="DF12" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="DG12" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="DH12" s="28" t="s">
-        <v>275</v>
-      </c>
       <c r="DI12" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="DJ12" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="DK12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DL12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DN12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DO12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DP12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DQ12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A13" s="50" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B13" s="50">
         <v>1</v>
@@ -6841,13 +6840,13 @@
       <c r="M13" s="48"/>
       <c r="N13" s="15"/>
       <c r="O13" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
@@ -6855,13 +6854,13 @@
       <c r="W13" s="48"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
@@ -6869,39 +6868,39 @@
       <c r="AG13" s="48"/>
       <c r="AH13" s="15"/>
       <c r="AI13" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AJ13" s="15"/>
       <c r="AK13" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL13" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AM13" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN13" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AO13" s="15"/>
       <c r="AP13" s="15"/>
       <c r="AQ13" s="48"/>
       <c r="AR13" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AS13" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT13" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AU13" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AV13" s="15"/>
       <c r="AW13" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AX13" s="15"/>
       <c r="AY13" s="15"/>
@@ -6911,7 +6910,7 @@
       <c r="BC13" s="15"/>
       <c r="BD13" s="15"/>
       <c r="BE13" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BF13" s="15"/>
       <c r="BG13" s="15"/>
@@ -6921,16 +6920,16 @@
       <c r="BK13" s="48"/>
       <c r="BL13" s="15"/>
       <c r="BM13" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="BN13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO13" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP13" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="BO13" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="BP13" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="BQ13" s="15"/>
       <c r="BR13" s="15"/>
@@ -6940,7 +6939,7 @@
       <c r="BV13" s="15"/>
       <c r="BW13" s="15"/>
       <c r="BX13" s="28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="BY13" s="15"/>
       <c r="BZ13" s="15"/>
@@ -6952,7 +6951,7 @@
       <c r="CF13" s="15"/>
       <c r="CG13" s="15"/>
       <c r="CH13" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="CI13" s="15"/>
       <c r="CJ13" s="15"/>
@@ -6964,7 +6963,7 @@
       <c r="CP13" s="15"/>
       <c r="CQ13" s="15"/>
       <c r="CR13" s="28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="CS13" s="15"/>
       <c r="CT13" s="15"/>
@@ -6973,69 +6972,69 @@
       <c r="CW13" s="15"/>
       <c r="CX13" s="15"/>
       <c r="CY13" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="CZ13" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="DA13" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="DB13" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="DC13" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="DB13" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="DC13" s="28" t="s">
-        <v>291</v>
-      </c>
       <c r="DD13" s="28" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="DE13" s="28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="DF13" s="28" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="DG13" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="DH13" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="DI13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DJ13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DK13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DL13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DM13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DN13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DO13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DP13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DQ13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="DR13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A14" s="50" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B14" s="50">
         <v>0</v>
@@ -7163,7 +7162,7 @@
     </row>
     <row r="15" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A15" s="50" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B15" s="50">
         <v>0</v>
@@ -7291,7 +7290,7 @@
     </row>
     <row r="16" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A16" s="50" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B16" s="50">
         <v>0</v>
@@ -7419,7 +7418,7 @@
     </row>
     <row r="17" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A17" s="50" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B17" s="50">
         <v>0</v>
@@ -7547,7 +7546,7 @@
     </row>
     <row r="18" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A18" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B18" s="50">
         <v>0</v>
@@ -7675,7 +7674,7 @@
     </row>
     <row r="19" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A19" s="50" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B19" s="50">
         <v>0</v>
@@ -7803,7 +7802,7 @@
     </row>
     <row r="20" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A20" s="50" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B20" s="50">
         <v>0</v>
@@ -7931,7 +7930,7 @@
     </row>
     <row r="21" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A21" s="50" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B21" s="50">
         <v>0</v>
@@ -8059,7 +8058,7 @@
     </row>
     <row r="22" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A22" s="50" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B22" s="50">
         <v>0</v>
@@ -8187,7 +8186,7 @@
     </row>
     <row r="23" spans="1:122" s="37" customFormat="1" ht="14" thickBot="1">
       <c r="A23" s="50" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B23" s="50">
         <v>0</v>
@@ -9110,74 +9109,79 @@
     <mergeCell ref="X42:Y42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="U33:X33 U30:AA32 AL43:BY43 AL39:AM39 BS46:CN47 U35:X36 U39:AA39 U38:W38 U28:AC28 BV28:CA28 U41:AA41 U40:W40 Z40:AA40 CJ39:CN43 BJ41:BY41 BJ39:BN40 Z43:AA43 U42:U45 AD51:XFD1048576 Z44:CN44 Z45:AA45 AV45:CN45 C55:AC1048576 AV46:BH47 U27:BL27 AD42 AI3 CN28:CN38 AU3 CA3 C1:XFD2 C25:AU26 BT25:XFD26 AV40:BA40 BA42:BY42 AF42 BA41 AX39:AY39 BX29:BY38 AJ28:AL28 BM28:BO28 CH28:CJ28 BM29:BM38 BK28:BL38 CJ29:CJ38 C3:O3 Q3:AG3 AK3:AS3 AW3:BK3 BM3:BY3 CC3:XFD3 AV4 C24:XFD24 AB4:AT4 AX4:BZ4 U29:W29 DS4:XFD4 AT5 BF5 AB5:AR5 AV5:BD5 CB4:CX5 BH5:BZ5 BP6:BQ6 C4:Z6 AB6:AT6 AV6:BM6 BS6:BX6 BZ6:DC6 DI5:XFD6 C7:AA7 AC7:BP7 BR7:BW7 CL27:CN27 AV48:CN50 CO27:XFD50 C51:I54 U46:AA50 DF7:XFD7 CZ8:DC8 C8:V8 X8:AI8 BG8:BJ8 AN8:BD8 BY7:BZ8 BL8:BM8 BO8:BW8 CB7:CX8 DE8:XFD8 CY2:DR7 AT9 BZ9 DE9 C9:Q9 S9:X9 AM9:AR9 AW9:BA9 BP9:BQ9 BF9:BG9 BI9:BN9 Z35:AA36 BS9:BX9 CC9:CK9 CM9:CX9 DH3:DH9 CB10:CF10 C10:X10 Z10:AA10 AC9:AH10 AT10:AU10 AJ9:AK10 AP10:AR10 AW10:BB10 BG10:BM10 BO10:BW10 CK10:CX10 DH9:XFD10 AT11 Z11 C11:N11 P11:X11 AB11 AV11 AL11 Z33:AA33 AN11:AR11 U34:AA34 AX11:BD11 BI11:BQ11 BS11:BX11 U37:AA37 CC11:CK11 CM11:CX11 DI11:XFD11 BC12 BE12 CK12:CL12 Z29:AA29 G12:O12 Z38:AA38 AL29:AL38 Q12:W12 Y12 AI12 AD11:AG12 AK12:AQ12 AV12:BA12 BG12:BH12 BQ12:BR12 BJ12:BL12 BT12:BY12 CD12:CI12 CN12:CW12 C12:E12 DK12:XFD12 AC36:AD38 AF36:AG37 AG38 AQ28:BH28 AF32 AO28">
-    <cfRule type="containsText" dxfId="227" priority="325" operator="containsText" text="A">
+  <conditionalFormatting sqref="U33:X33 U30:AA32 AL43:BY43 AL39:AM39 BS46:CN47 U35:X36 U39:AA39 U38:W38 U28:AC28 BV28:CA28 U41:AA41 U40:W40 Z40:AA40 CJ39:CN43 BJ41:BY41 BJ39:BN40 Z43:AA43 U42:U45 AD51:XFD1048576 Z44:CN44 Z45:AA45 AV45:CN45 C55:AC1048576 AV46:BH47 U27:BL27 AD42 AI3 CN28:CN38 AU3 CA3 C1:XFD1 C25:AU26 BT25:XFD26 AV40:BA40 BA42:BY42 AF42 BA41 AX39:AY39 BX29:BY38 AJ28:AL28 BM28:BO28 CH28:CJ28 BM29:BM38 BK28:BL38 CJ29:CJ38 C3:O3 Q3:AG3 AK3:AS3 AW3:BK3 BM3:BY3 CC3:XFD3 AV4 C24:XFD24 AB4:AT4 AX4:BZ4 U29:W29 DS4:XFD4 AT5 BF5 AB5:AR5 AV5:BD5 CB4:CX5 BH5:BZ5 BP6:BQ6 C4:Z6 AB6:AT6 AV6:BM6 BS6:BX6 BZ6:DC6 DI5:XFD6 C7:AA7 AC7:BP7 BR7:BW7 CL27:CN27 AV48:CN50 CO27:XFD50 C51:I54 U46:AA50 DF7:XFD7 CZ8:DC8 C8:V8 X8:AI8 BG8:BJ8 AN8:BD8 BY7:BZ8 BL8:BM8 BO8:BW8 CB7:CX8 DE8:XFD8 CY3:DR7 AT9 BZ9 DE9 C9:Q9 S9:X9 AM9:AR9 AW9:BA9 BP9:BQ9 BF9:BG9 BI9:BN9 Z35:AA36 BS9:BX9 CC9:CK9 CM9:CX9 DH3:DH9 CB10:CF10 C10:X10 Z10:AA10 AC9:AH10 AT10:AU10 AJ9:AK10 AP10:AR10 AW10:BB10 BG10:BM10 BO10:BW10 CK10:CX10 DH9:XFD10 AT11 Z11 C11:N11 P11:X11 AB11 AV11 AL11 Z33:AA33 AN11:AR11 U34:AA34 AX11:BD11 BI11:BQ11 BS11:BX11 U37:AA37 CC11:CK11 CM11:CX11 DI11:XFD11 BC12 BE12 CK12:CL12 Z29:AA29 G12:O12 Z38:AA38 AL29:AL38 Q12:W12 Y12 AI12 AD11:AG12 AK12:AQ12 AV12:BA12 BG12:BH12 BQ12:BR12 BJ12:BL12 BT12:BY12 CD12:CI12 CN12:CW12 C12:E12 DK12:XFD12 AC36:AD38 AF36:AG37 AG38 AQ28:BH28 AF32 AO28">
+    <cfRule type="containsText" dxfId="228" priority="326" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB41:BI41">
-    <cfRule type="containsText" dxfId="226" priority="318" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="227" priority="319" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BB41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA3">
-    <cfRule type="containsText" dxfId="225" priority="292" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="226" priority="293" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",DA3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI40">
-    <cfRule type="containsText" dxfId="224" priority="306" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="225" priority="307" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BI40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI3:BJ3">
-    <cfRule type="containsText" dxfId="223" priority="291" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="224" priority="292" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BI3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ33 BZ29:CI31 CI32:CI33 BZ34:CI38">
+    <cfRule type="containsText" dxfId="223" priority="302" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BZ29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ32">
     <cfRule type="containsText" dxfId="222" priority="301" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BZ29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ32">
+      <formula>NOT(ISERROR(SEARCH("A",BZ32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA32:CH33">
     <cfRule type="containsText" dxfId="221" priority="300" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BZ32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CA32:CH33">
+      <formula>NOT(ISERROR(SEARCH("A",CA32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB40:BH40">
     <cfRule type="containsText" dxfId="220" priority="299" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CA32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB40:BH40">
-    <cfRule type="containsText" dxfId="219" priority="298" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BB40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3 BK3">
-    <cfRule type="containsText" dxfId="218" priority="296" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="219" priority="297" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AR3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA3">
+    <cfRule type="containsText" dxfId="218" priority="290" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BA3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD3">
     <cfRule type="containsText" dxfId="217" priority="289" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BA3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD3">
-    <cfRule type="containsText" dxfId="216" priority="288" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",CD3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
+    <cfRule type="containsText" dxfId="216" priority="286" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",O3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X38">
     <cfRule type="containsText" dxfId="215" priority="285" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",O3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X38">
-    <cfRule type="containsText" dxfId="214" priority="284" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",X38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="containsText" dxfId="214" priority="262" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",Y3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
@@ -9185,9 +9189,9 @@
       <formula>NOT(ISERROR(SEARCH("A",Y3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
+  <conditionalFormatting sqref="AE3:AF3">
     <cfRule type="containsText" dxfId="212" priority="260" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",Y3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",AE3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AF3">
@@ -9195,9 +9199,9 @@
       <formula>NOT(ISERROR(SEARCH("A",AE3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AF3">
+  <conditionalFormatting sqref="BE3:BF3">
     <cfRule type="containsText" dxfId="210" priority="258" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AE3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BE3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE3:BF3">
@@ -9205,9 +9209,9 @@
       <formula>NOT(ISERROR(SEARCH("A",BE3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BF3">
+  <conditionalFormatting sqref="BC3">
     <cfRule type="containsText" dxfId="208" priority="256" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BE3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BC3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC3">
@@ -9215,9 +9219,9 @@
       <formula>NOT(ISERROR(SEARCH("A",BC3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC3">
+  <conditionalFormatting sqref="Z3:AB3">
     <cfRule type="containsText" dxfId="206" priority="254" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BC3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",Z3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AB3">
@@ -9225,29 +9229,29 @@
       <formula>NOT(ISERROR(SEARCH("A",Z3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AB3">
+  <conditionalFormatting sqref="AD3">
     <cfRule type="containsText" dxfId="204" priority="252" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AD3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM3">
+    <cfRule type="containsText" dxfId="203" priority="251" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BM3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3">
+    <cfRule type="containsText" dxfId="202" priority="240" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",Z3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD3">
-    <cfRule type="containsText" dxfId="203" priority="251" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AD3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM3">
-    <cfRule type="containsText" dxfId="202" priority="250" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BM3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
+  <conditionalFormatting sqref="AK3 AN3">
     <cfRule type="containsText" dxfId="201" priority="239" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",Z3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK3 AN3">
+      <formula>NOT(ISERROR(SEARCH("A",AK3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL3">
     <cfRule type="containsText" dxfId="200" priority="238" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AK3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",AL3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3">
@@ -9255,19 +9259,19 @@
       <formula>NOT(ISERROR(SEARCH("A",AL3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL3">
+  <conditionalFormatting sqref="BD3 BG3:BH3">
     <cfRule type="containsText" dxfId="198" priority="236" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AL3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD3 BG3:BH3">
+      <formula>NOT(ISERROR(SEARCH("A",BD3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE3:BF3">
     <cfRule type="containsText" dxfId="197" priority="235" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BD3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BF3">
-    <cfRule type="containsText" dxfId="196" priority="234" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BE3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="containsText" dxfId="196" priority="244" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",R3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
@@ -9275,9 +9279,9 @@
       <formula>NOT(ISERROR(SEARCH("A",R3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
+  <conditionalFormatting sqref="CY3">
     <cfRule type="containsText" dxfId="194" priority="242" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",R3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",CY3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY3">
@@ -9285,14 +9289,14 @@
       <formula>NOT(ISERROR(SEARCH("A",CY3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CY3">
-    <cfRule type="containsText" dxfId="192" priority="240" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CY3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BE3:BF3">
-    <cfRule type="containsText" dxfId="191" priority="233" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="192" priority="234" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BE3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA3">
+    <cfRule type="containsText" dxfId="191" priority="231" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",CA3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA3">
@@ -9301,7 +9305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA3">
-    <cfRule type="containsText" dxfId="189" priority="229" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="189" priority="226" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",CA3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9310,74 +9314,74 @@
       <formula>NOT(ISERROR(SEARCH("A",CA3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA3">
-    <cfRule type="containsText" dxfId="187" priority="224" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CA3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="X40">
-    <cfRule type="containsText" dxfId="186" priority="222" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="187" priority="223" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",X40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU3">
-    <cfRule type="containsText" dxfId="185" priority="219" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="186" priority="220" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BU3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ41:CI43 CE39:CI40">
+    <cfRule type="containsText" dxfId="185" priority="215" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BZ39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO39:CD40">
     <cfRule type="containsText" dxfId="184" priority="214" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BZ39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO39:CD40">
+      <formula>NOT(ISERROR(SEARCH("A",BO39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN29:BW38">
     <cfRule type="containsText" dxfId="183" priority="213" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BO39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN29:BW38">
+      <formula>NOT(ISERROR(SEARCH("A",BN29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ33:BV33">
     <cfRule type="containsText" dxfId="182" priority="212" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BN29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ33:BV33">
-    <cfRule type="containsText" dxfId="181" priority="211" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BQ33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN32">
+    <cfRule type="containsText" dxfId="181" priority="209" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BN32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV34:BW34">
     <cfRule type="containsText" dxfId="180" priority="208" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BN32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV34:BW34">
-    <cfRule type="containsText" dxfId="179" priority="207" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BV34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN30:BN31 BN33 BN35 BN37:BN38">
+    <cfRule type="containsText" dxfId="179" priority="211" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BN30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP32:BW32">
     <cfRule type="containsText" dxfId="178" priority="210" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BN30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP32:BW32">
-    <cfRule type="containsText" dxfId="177" priority="209" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BP32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN34">
+    <cfRule type="containsText" dxfId="177" priority="207" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BN34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW36">
     <cfRule type="containsText" dxfId="176" priority="206" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BN34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BW36">
+      <formula>NOT(ISERROR(SEARCH("A",BW36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO30 BO32:BO35">
     <cfRule type="containsText" dxfId="175" priority="205" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BW36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO30 BO32:BO35">
+      <formula>NOT(ISERROR(SEARCH("A",BO30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO31">
     <cfRule type="containsText" dxfId="174" priority="204" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BO30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BO31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO31">
@@ -9385,9 +9389,9 @@
       <formula>NOT(ISERROR(SEARCH("A",BO31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO31">
+  <conditionalFormatting sqref="BV31:BW31">
     <cfRule type="containsText" dxfId="172" priority="202" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BO31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BV31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV31:BW31">
@@ -9395,9 +9399,9 @@
       <formula>NOT(ISERROR(SEARCH("A",BV31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV31:BW31">
+  <conditionalFormatting sqref="BR34:BS34">
     <cfRule type="containsText" dxfId="170" priority="200" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BV31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BR34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR34:BS34">
@@ -9405,9 +9409,9 @@
       <formula>NOT(ISERROR(SEARCH("A",BR34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR34:BS34">
+  <conditionalFormatting sqref="BP34">
     <cfRule type="containsText" dxfId="168" priority="198" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BR34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BP34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP34">
@@ -9415,9 +9419,9 @@
       <formula>NOT(ISERROR(SEARCH("A",BP34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP34">
+  <conditionalFormatting sqref="BP31:BT31">
     <cfRule type="containsText" dxfId="166" priority="196" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BP34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BP31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP31:BT31">
@@ -9425,29 +9429,29 @@
       <formula>NOT(ISERROR(SEARCH("A",BP31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP31:BT31">
+  <conditionalFormatting sqref="BU31">
     <cfRule type="containsText" dxfId="164" priority="194" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BU31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP35">
+    <cfRule type="containsText" dxfId="163" priority="193" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BP35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP31">
+    <cfRule type="containsText" dxfId="162" priority="188" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BP31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU31">
-    <cfRule type="containsText" dxfId="163" priority="193" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BU31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP35">
-    <cfRule type="containsText" dxfId="162" priority="192" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BP35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP31">
+  <conditionalFormatting sqref="BQ32 BT32:BU32">
     <cfRule type="containsText" dxfId="161" priority="187" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BP31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ32 BT32:BU32">
+      <formula>NOT(ISERROR(SEARCH("A",BQ32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR32:BS32">
     <cfRule type="containsText" dxfId="160" priority="186" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BQ32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BR32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR32:BS32">
@@ -9455,19 +9459,19 @@
       <formula>NOT(ISERROR(SEARCH("A",BR32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR32:BS32">
+  <conditionalFormatting sqref="BQ34 BT34:BU34">
     <cfRule type="containsText" dxfId="158" priority="184" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BR32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ34 BT34:BU34">
+      <formula>NOT(ISERROR(SEARCH("A",BQ34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR34:BS34">
     <cfRule type="containsText" dxfId="157" priority="183" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BQ34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR34:BS34">
-    <cfRule type="containsText" dxfId="156" priority="182" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BR34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR30:BS30">
+    <cfRule type="containsText" dxfId="156" priority="192" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BR30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR30:BS30">
@@ -9475,9 +9479,9 @@
       <formula>NOT(ISERROR(SEARCH("A",BR30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR30:BS30">
+  <conditionalFormatting sqref="BP30">
     <cfRule type="containsText" dxfId="154" priority="190" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BR30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BP30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP30">
@@ -9485,24 +9489,24 @@
       <formula>NOT(ISERROR(SEARCH("A",BP30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP30">
-    <cfRule type="containsText" dxfId="152" priority="188" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BP30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BR34:BS34">
+    <cfRule type="containsText" dxfId="152" priority="182" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BR34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP37:BU38">
     <cfRule type="containsText" dxfId="151" priority="181" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BR34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP37:BU38">
+      <formula>NOT(ISERROR(SEARCH("A",BP37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU36:BV36">
     <cfRule type="containsText" dxfId="150" priority="180" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BP37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU36:BV36">
+      <formula>NOT(ISERROR(SEARCH("A",BU36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT36">
     <cfRule type="containsText" dxfId="149" priority="179" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BU36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BT36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT36">
@@ -9510,14 +9514,14 @@
       <formula>NOT(ISERROR(SEARCH("A",BT36)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BU36:BV36">
+    <cfRule type="containsText" dxfId="147" priority="177" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BU36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BT36">
-    <cfRule type="containsText" dxfId="147" priority="177" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="146" priority="176" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BT36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU36:BV36">
-    <cfRule type="containsText" dxfId="146" priority="176" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BU36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT36">
@@ -9525,9 +9529,9 @@
       <formula>NOT(ISERROR(SEARCH("A",BT36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT36">
+  <conditionalFormatting sqref="BO36:BS36">
     <cfRule type="containsText" dxfId="144" priority="174" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BT36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BO36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO36:BS36">
@@ -9535,29 +9539,29 @@
       <formula>NOT(ISERROR(SEARCH("A",BO36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO36:BS36">
+  <conditionalFormatting sqref="BN36">
     <cfRule type="containsText" dxfId="142" priority="172" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BO36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN36">
+      <formula>NOT(ISERROR(SEARCH("A",BN36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP28">
     <cfRule type="containsText" dxfId="141" priority="171" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BN36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP28">
+      <formula>NOT(ISERROR(SEARCH("A",BP28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X42">
     <cfRule type="containsText" dxfId="140" priority="170" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BP28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X42">
+      <formula>NOT(ISERROR(SEARCH("A",X42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X43:X45">
     <cfRule type="containsText" dxfId="139" priority="169" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",X42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X43:X45">
-    <cfRule type="containsText" dxfId="138" priority="168" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",X43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="containsText" dxfId="138" priority="166" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
@@ -9565,184 +9569,184 @@
       <formula>NOT(ISERROR(SEARCH("A",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="containsText" dxfId="136" priority="164" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",O3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="CK28:CM38">
-    <cfRule type="containsText" dxfId="135" priority="161" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="136" priority="162" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",CK28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY4:DB4">
-    <cfRule type="containsText" dxfId="134" priority="159" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="135" priority="160" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",CY4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN6">
-    <cfRule type="containsText" dxfId="133" priority="157" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="134" priority="158" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BN6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB28">
+    <cfRule type="containsText" dxfId="133" priority="152" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",CB28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD28">
     <cfRule type="containsText" dxfId="132" priority="151" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CB28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD28">
+      <formula>NOT(ISERROR(SEARCH("A",AD28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8 BK8 DD8">
     <cfRule type="containsText" dxfId="131" priority="150" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AD28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W8 BK8 DD8">
+      <formula>NOT(ISERROR(SEARCH("A",W8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DB7:DE7">
     <cfRule type="containsText" dxfId="130" priority="149" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",W8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DB7:DE7">
+      <formula>NOT(ISERROR(SEARCH("A",DB7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY7">
     <cfRule type="containsText" dxfId="129" priority="148" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",DB7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CY7">
+      <formula>NOT(ISERROR(SEARCH("A",CY7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ7">
     <cfRule type="containsText" dxfId="128" priority="147" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CY7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CZ7">
+      <formula>NOT(ISERROR(SEARCH("A",CZ7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA7">
     <cfRule type="containsText" dxfId="127" priority="146" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CZ7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DA7">
-    <cfRule type="containsText" dxfId="126" priority="145" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",DA7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:Q9">
-    <cfRule type="containsText" dxfId="125" priority="141" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="126" priority="142" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",O9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX12">
+    <cfRule type="containsText" dxfId="125" priority="137" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",CX12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:V23 DS13:XFD23 C13:L13">
     <cfRule type="containsText" dxfId="124" priority="136" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CX12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:V23 DS13:XFD23 C13:L13">
+      <formula>NOT(ISERROR(SEARCH("A",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:DR23 C13:L13">
     <cfRule type="containsText" dxfId="123" priority="135" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:DR23 C13:L13">
-    <cfRule type="containsText" dxfId="122" priority="134" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="CM12">
-    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="122" priority="123" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",CM12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT12">
+    <cfRule type="containsText" dxfId="121" priority="133" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AT12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
     <cfRule type="containsText" dxfId="120" priority="132" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AT12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+      <formula>NOT(ISERROR(SEARCH("A",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z12">
     <cfRule type="containsText" dxfId="119" priority="131" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",F12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z12">
+      <formula>NOT(ISERROR(SEARCH("A",Z12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12">
     <cfRule type="containsText" dxfId="118" priority="130" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",Z12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA12">
+      <formula>NOT(ISERROR(SEARCH("A",AA12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12">
     <cfRule type="containsText" dxfId="117" priority="129" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AA12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
+      <formula>NOT(ISERROR(SEARCH("A",AC12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN12">
     <cfRule type="containsText" dxfId="116" priority="128" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AC12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN12">
+      <formula>NOT(ISERROR(SEARCH("A",BN12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP12">
     <cfRule type="containsText" dxfId="115" priority="127" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BN12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP12">
+      <formula>NOT(ISERROR(SEARCH("A",BP12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ12">
     <cfRule type="containsText" dxfId="114" priority="126" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BP12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ12">
+      <formula>NOT(ISERROR(SEARCH("A",BZ12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CC12">
     <cfRule type="containsText" dxfId="113" priority="125" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BZ12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CC12">
+      <formula>NOT(ISERROR(SEARCH("A",CC12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI12">
     <cfRule type="containsText" dxfId="112" priority="124" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CC12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI12">
-    <cfRule type="containsText" dxfId="111" priority="123" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BI12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36">
-    <cfRule type="containsText" dxfId="110" priority="78" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="111" priority="79" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AB36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AK29 AB30:AC32 AB33 AB34:AE34 AB35:AC38 AC29:AK38">
+    <cfRule type="containsText" dxfId="110" priority="120" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AB29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33 AI33:AJ33">
     <cfRule type="containsText" dxfId="109" priority="119" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AB29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG33 AI33:AJ33">
-    <cfRule type="containsText" dxfId="108" priority="118" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AG33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32">
+    <cfRule type="containsText" dxfId="108" priority="116" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AB32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ34:AK34">
     <cfRule type="containsText" dxfId="107" priority="115" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AB32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ34:AK34">
-    <cfRule type="containsText" dxfId="106" priority="114" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AJ34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30:AB31 AB33 AB35 AB37:AB38">
+    <cfRule type="containsText" dxfId="106" priority="118" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AB30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32 AJ32:AK32">
     <cfRule type="containsText" dxfId="105" priority="117" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AB30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE32 AJ32:AK32">
-    <cfRule type="containsText" dxfId="104" priority="116" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AE32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
+    <cfRule type="containsText" dxfId="104" priority="114" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AB34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK36">
     <cfRule type="containsText" dxfId="103" priority="113" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AB34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK36">
+      <formula>NOT(ISERROR(SEARCH("A",AK36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC30 AC32 AC34:AC35">
     <cfRule type="containsText" dxfId="102" priority="112" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AK36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC30 AC32 AC34:AC35">
+      <formula>NOT(ISERROR(SEARCH("A",AC30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC31">
     <cfRule type="containsText" dxfId="101" priority="111" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AC30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",AC31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC31">
@@ -9750,9 +9754,9 @@
       <formula>NOT(ISERROR(SEARCH("A",AC31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC31">
+  <conditionalFormatting sqref="AJ31:AK31">
     <cfRule type="containsText" dxfId="99" priority="109" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AC31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",AJ31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ31:AK31">
@@ -9760,9 +9764,9 @@
       <formula>NOT(ISERROR(SEARCH("A",AJ31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31:AK31">
+  <conditionalFormatting sqref="AG34">
     <cfRule type="containsText" dxfId="97" priority="107" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AJ31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",AG34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34">
@@ -9770,9 +9774,9 @@
       <formula>NOT(ISERROR(SEARCH("A",AG34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
+  <conditionalFormatting sqref="AD34">
     <cfRule type="containsText" dxfId="95" priority="105" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AG34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",AD34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD34">
@@ -9780,9 +9784,9 @@
       <formula>NOT(ISERROR(SEARCH("A",AD34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD34">
+  <conditionalFormatting sqref="AE31:AG31">
     <cfRule type="containsText" dxfId="93" priority="103" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AD34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",AE31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE31:AG31">
@@ -9790,29 +9794,29 @@
       <formula>NOT(ISERROR(SEARCH("A",AE31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31:AG31">
+  <conditionalFormatting sqref="AI31">
     <cfRule type="containsText" dxfId="91" priority="101" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AE31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI31">
-    <cfRule type="containsText" dxfId="90" priority="100" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AI31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE32">
-    <cfRule type="containsText" dxfId="89" priority="93" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="90" priority="94" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AE32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE34 AH34:AI34">
+    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AE34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG34">
     <cfRule type="containsText" dxfId="88" priority="90" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AE34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
-    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AG34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30:AG30">
+    <cfRule type="containsText" dxfId="87" priority="99" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AF30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF30:AG30">
@@ -9820,24 +9824,24 @@
       <formula>NOT(ISERROR(SEARCH("A",AF30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF30:AG30">
-    <cfRule type="containsText" dxfId="85" priority="97" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AF30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AG34">
+    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AG34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH37:AI38">
     <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AG34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH37:AI38">
+      <formula>NOT(ISERROR(SEARCH("A",AH37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI36:AJ36">
     <cfRule type="containsText" dxfId="83" priority="87" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AH37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI36:AJ36">
+      <formula>NOT(ISERROR(SEARCH("A",AI36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
     <cfRule type="containsText" dxfId="82" priority="86" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AI36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",AH36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH36">
@@ -9845,14 +9849,14 @@
       <formula>NOT(ISERROR(SEARCH("A",AH36)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AI36:AJ36">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AI36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AH36">
-    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AH36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI36:AJ36">
-    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AI36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH36">
@@ -9860,79 +9864,79 @@
       <formula>NOT(ISERROR(SEARCH("A",AH36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AH36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AF38">
+    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AF38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD33">
     <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AF38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD33">
+      <formula>NOT(ISERROR(SEARCH("A",AD33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP28">
     <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AD33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP28">
+      <formula>NOT(ISERROR(SEARCH("A",AP28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32">
     <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AP28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32">
+      <formula>NOT(ISERROR(SEARCH("A",AH32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH30">
     <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AH32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH30">
+      <formula>NOT(ISERROR(SEARCH("A",AH30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
     <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AH30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH33">
+      <formula>NOT(ISERROR(SEARCH("A",AH33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
     <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AH33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
+      <formula>NOT(ISERROR(SEARCH("A",AE35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE37">
     <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AE35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE37">
+      <formula>NOT(ISERROR(SEARCH("A",AE37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG35">
     <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AE37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG35">
+      <formula>NOT(ISERROR(SEARCH("A",AG35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD30">
     <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AG35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD30">
+      <formula>NOT(ISERROR(SEARCH("A",AD30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD31">
     <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AD30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD31">
+      <formula>NOT(ISERROR(SEARCH("A",AD31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:N13 P13:R13 T13:V13">
     <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AD31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13:N13 P13:R13 T13:V13">
+      <formula>NOT(ISERROR(SEARCH("A",M13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
     <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",M13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
+  <conditionalFormatting sqref="N13">
     <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",M13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
+      <formula>NOT(ISERROR(SEARCH("A",N13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:R13">
     <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",N13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",Q13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:R13">
@@ -9940,29 +9944,29 @@
       <formula>NOT(ISERROR(SEARCH("A",Q13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:R13">
+  <conditionalFormatting sqref="S13">
     <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",Q13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
+      <formula>NOT(ISERROR(SEARCH("A",S13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
     <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",S13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
+      <formula>NOT(ISERROR(SEARCH("A",O13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13:X13 Z13:AB13 AD13:AF13">
     <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",O13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W13:X13 Z13:AB13 AD13:AF13">
+      <formula>NOT(ISERROR(SEARCH("A",W13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13">
     <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",W13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13">
+  <conditionalFormatting sqref="X13">
     <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",W13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",X13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13">
@@ -9970,9 +9974,9 @@
       <formula>NOT(ISERROR(SEARCH("A",X13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13">
+  <conditionalFormatting sqref="AE13:AF13">
     <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",X13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",AE13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE13:AF13">
@@ -9980,9 +9984,9 @@
       <formula>NOT(ISERROR(SEARCH("A",AE13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE13:AF13">
+  <conditionalFormatting sqref="Z13:AB13">
     <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AE13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",Z13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13:AB13">
@@ -9990,99 +9994,99 @@
       <formula>NOT(ISERROR(SEARCH("A",Z13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z13:AB13">
+  <conditionalFormatting sqref="AD13">
     <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",Z13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD13">
+      <formula>NOT(ISERROR(SEARCH("A",AD13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13">
     <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AD13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13">
+      <formula>NOT(ISERROR(SEARCH("A",Y13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
     <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",Y13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13">
+      <formula>NOT(ISERROR(SEARCH("A",AK13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13:AH13 AJ13 AO13:AP13">
     <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AK13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG13:AH13 AJ13 AO13:AP13">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AG13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13">
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AG13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ13 AO13:AP13">
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AJ13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH13">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AH13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13">
     <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AH13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13">
+      <formula>NOT(ISERROR(SEARCH("A",AJ13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM13">
     <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AJ13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM13">
+      <formula>NOT(ISERROR(SEARCH("A",AM13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ13 AV13 AX13:AZ13">
     <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AM13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ13 AV13 AX13:AZ13">
+      <formula>NOT(ISERROR(SEARCH("A",AQ13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV13 AX13:AY13">
     <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AV13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ13">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AQ13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV13 AX13:AY13">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AV13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ13">
+  <conditionalFormatting sqref="AS13">
     <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AQ13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS13">
+      <formula>NOT(ISERROR(SEARCH("A",AS13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW13">
     <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AS13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW13">
+      <formula>NOT(ISERROR(SEARCH("A",AW13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA13:BD13 BF13:BJ13">
     <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AW13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA13:BD13 BF13:BJ13">
+      <formula>NOT(ISERROR(SEARCH("A",BA13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI13:BJ13">
     <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BI13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA13">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BA13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI13:BJ13">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BI13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA13">
+  <conditionalFormatting sqref="BB13">
     <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BA13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB13">
+      <formula>NOT(ISERROR(SEARCH("A",BB13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF13">
     <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BB13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BF13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF13">
@@ -10090,9 +10094,9 @@
       <formula>NOT(ISERROR(SEARCH("A",BF13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF13">
+  <conditionalFormatting sqref="BC13">
     <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BF13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BC13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC13">
@@ -10100,14 +10104,14 @@
       <formula>NOT(ISERROR(SEARCH("A",BC13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC13">
+  <conditionalFormatting sqref="BD13 BG13:BH13">
     <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BC13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD13 BG13:BH13">
+      <formula>NOT(ISERROR(SEARCH("A",BD13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF13">
     <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BD13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",BF13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF13">
@@ -10115,59 +10119,59 @@
       <formula>NOT(ISERROR(SEARCH("A",BF13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF13">
+  <conditionalFormatting sqref="BK13:BL13 BQ13:BT13">
     <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BF13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK13:BL13 BQ13:BT13">
+      <formula>NOT(ISERROR(SEARCH("A",BK13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK13">
     <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BK13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK13">
+  <conditionalFormatting sqref="BL13">
     <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BK13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL13">
+      <formula>NOT(ISERROR(SEARCH("A",BL13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN13">
     <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BL13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN13">
+      <formula>NOT(ISERROR(SEARCH("A",BN13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP13">
     <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BN13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP13">
+      <formula>NOT(ISERROR(SEARCH("A",BP13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV13:BW13 BY13:BZ13">
     <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BP13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV13:BW13 BY13:BZ13">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BV13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU13">
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",BU13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU13:BV13 CA13:CD13">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",BU13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD13">
     <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",BU13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD13">
+      <formula>NOT(ISERROR(SEARCH("A",CD13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CB13:CC13">
     <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CD13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CB13:CC13">
+      <formula>NOT(ISERROR(SEARCH("A",CB13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA13">
     <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CB13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",CA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA13">
@@ -10175,14 +10179,14 @@
       <formula>NOT(ISERROR(SEARCH("A",CA13)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="CB13:CC13">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",CB13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="CA13">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",CA13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CB13:CC13">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CB13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA13">
@@ -10190,64 +10194,64 @@
       <formula>NOT(ISERROR(SEARCH("A",CA13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA13">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CA13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="CF13:CG13 CI13:CJ13">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",CF13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CE13:CF13 CK13:CN13">
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CF13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CE13:CF13 CK13:CN13">
+      <formula>NOT(ISERROR(SEARCH("A",CE13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CE13">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",CE13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE13">
+  <conditionalFormatting sqref="CK13:CL13">
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CE13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CK13:CL13">
+      <formula>NOT(ISERROR(SEARCH("A",CK13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH13">
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CK13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH13">
+      <formula>NOT(ISERROR(SEARCH("A",CH13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CP13:CQ13 CT13">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CH13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CP13:CQ13 CT13">
+      <formula>NOT(ISERROR(SEARCH("A",CP13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO13:CP13 CU13:CX13">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CP13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CO13:CP13 CU13:CX13">
+      <formula>NOT(ISERROR(SEARCH("A",CO13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO13">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",CO13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO13">
+  <conditionalFormatting sqref="CU13:CV13">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CO13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CU13:CV13">
+      <formula>NOT(ISERROR(SEARCH("A",CU13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CS13">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CU13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CS13">
+      <formula>NOT(ISERROR(SEARCH("A",CS13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DI13:DR13">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",CS13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DI13:DR13">
+      <formula>NOT(ISERROR(SEARCH("A",DI13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:XFD2">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",DI13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
